--- a/reports/Отчёт за 16.04.2025.xlsx
+++ b/reports/Отчёт за 16.04.2025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Дата</t>
   </si>
@@ -47,7 +47,7 @@
     <t>пахота зяби</t>
   </si>
   <si>
-    <t>многолетние травы</t>
+    <t>сою</t>
   </si>
   <si>
     <t>предпосевная культура</t>
@@ -56,34 +56,22 @@
     <t>озимая пшеница</t>
   </si>
   <si>
-    <t>дискование</t>
-  </si>
-  <si>
-    <t>пшеница</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>сою</t>
+    <t>пахота</t>
+  </si>
+  <si>
+    <t>сахарная свекла</t>
+  </si>
+  <si>
+    <t>выравнивание</t>
   </si>
   <si>
     <t>с</t>
   </si>
   <si>
-    <t>свекла</t>
-  </si>
-  <si>
-    <t>второе дискование</t>
-  </si>
-  <si>
-    <t>свекла пшеница</t>
-  </si>
-  <si>
-    <t>внесение минеральные удобрений</t>
-  </si>
-  <si>
-    <t>озимая пшеницу</t>
+    <t>силос</t>
   </si>
 </sst>
 </file>
@@ -159,37 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
       <alignment horizontal="center" vertical="center"/>
@@ -215,7 +179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -223,8 +187,8 @@
   <cols>
     <col min="1" max="1" width="12.5390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.03125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.37890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="22.546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.74609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.4296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="30.78125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="19.60546875" customWidth="true" bestFit="true"/>
@@ -271,10 +235,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="n" s="1">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
       <c r="F2" t="n" s="1">
-        <v>488.0</v>
+        <v>1351.0</v>
       </c>
       <c r="G2" t="n" s="1">
         <v>-1.0</v>
@@ -297,10 +261,10 @@
         <v>13</v>
       </c>
       <c r="E3" t="n" s="1">
-        <v>215.0</v>
+        <v>56.0</v>
       </c>
       <c r="F3" t="n" s="1">
-        <v>1015.0</v>
+        <v>1071.0</v>
       </c>
       <c r="G3" t="n" s="1">
         <v>-1.0</v>
@@ -314,19 +278,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n" s="1">
-        <v>-1.0</v>
+        <v>65.0</v>
       </c>
       <c r="F4" t="n" s="1">
-        <v>627.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G4" t="n" s="1">
         <v>-1.0</v>
@@ -343,16 +307,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n" s="1">
-        <v>45.0</v>
+        <v>213.0</v>
       </c>
       <c r="F5" t="n" s="1">
-        <v>1907.0</v>
+        <v>223.0</v>
       </c>
       <c r="G5" t="n" s="1">
         <v>-1.0</v>
@@ -366,16 +330,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n" s="1">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="F6" t="n" s="1">
         <v>-1.0</v>
@@ -395,229 +359,21 @@
         <v>9</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s" s="1">
         <v>18</v>
       </c>
       <c r="E7" t="n" s="1">
-        <v>29.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F7" t="n" s="1">
-        <v>1367.0</v>
+        <v>323.0</v>
       </c>
       <c r="G7" t="n" s="1">
         <v>-1.0</v>
       </c>
       <c r="H7" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="E8" t="n" s="1">
-        <v>146.0</v>
-      </c>
-      <c r="F8" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G8" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="H8" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="E9" t="n" s="1">
-        <v>146.0</v>
-      </c>
-      <c r="F9" t="n" s="1">
-        <v>1217.0</v>
-      </c>
-      <c r="G9" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="H9" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="E10" t="n" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="F10" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G10" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="H10" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="E11" t="n" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="F11" t="n" s="1">
-        <v>934.0</v>
-      </c>
-      <c r="G11" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="H11" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="13">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="E12" t="n" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="F12" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G12" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="H12" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="E13" t="n" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="F13" t="n" s="1">
-        <v>775.0</v>
-      </c>
-      <c r="G13" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="H13" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="15">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="E14" t="n" s="1">
-        <v>149.0</v>
-      </c>
-      <c r="F14" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G14" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="H14" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="16">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="E15" t="n" s="1">
-        <v>149.0</v>
-      </c>
-      <c r="F15" t="n" s="1">
-        <v>7264.0</v>
-      </c>
-      <c r="G15" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="H15" t="n" s="1">
         <v>-1.0</v>
       </c>
     </row>
